--- a/biology/Médecine/Dysmorphie_craniofaciale/Dysmorphie_craniofaciale.xlsx
+++ b/biology/Médecine/Dysmorphie_craniofaciale/Dysmorphie_craniofaciale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une dysmorphie craniofaciale[1] est une configuration du crâne ou de la face qui est en écart par rapport de ce l'on rencontre chez la majorité des gens. Il peut donc s'agir de particularités plutôt que d'anomalies.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une dysmorphie craniofaciale est une configuration du crâne ou de la face qui est en écart par rapport de ce l'on rencontre chez la majorité des gens. Il peut donc s'agir de particularités plutôt que d'anomalies.
 Souvent, elles permettent au médecin clinicien ou au généticien d'évoquer un syndrome.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Quelques exemples de symptômes cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Synophris : jonction entre les deux sourcils
 Télécanthus : élargissements entre les deux canti médiaux sans hypertélorisme, yeux bridés
@@ -548,19 +562,21 @@
           <t>Exemples de syndromes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Syndrome de céphalopolysyndactylie de Greig[2] ou polysyndactylie-dysmorphie craniofaciale[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome de céphalopolysyndactylie de Greig ou polysyndactylie-dysmorphie craniofaciale
 Dysostose craniofaciale de Crouzon
 Syndrome de Down
 Syndrome de Smith-Magenis
-Dysostose craniofaciale et hyperplasie diaphysaire ou syndrome de Stănescu[1]
-Dysostose acrocraniofaciale[1]
+Dysostose craniofaciale et hyperplasie diaphysaire ou syndrome de Stănescu
+Dysostose acrocraniofaciale
 Syndrome d'alcoolisation fœtale
-Syndrome d'hypertélorisme-hypospadias-polysyndactylie[3]
-Syndrome d'ataxie spinocérébelleuse-dysmorphie[4]
+Syndrome d'hypertélorisme-hypospadias-polysyndactylie
+Syndrome d'ataxie spinocérébelleuse-dysmorphie
 Voir aussi :
-Craniosténoses[5] :
+Craniosténoses :
 scaphocéphalie
 trigonocéphalie
 plagiocéphalie synostotique
@@ -593,7 +609,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En histoire, on parle parfois de gueules cassées quand on mentionne les soldats défigurés de la Première Guerre mondiale.
 </t>
